--- a/Conducteur2022-04-09-Journee.xlsx
+++ b/Conducteur2022-04-09-Journee.xlsx
@@ -1554,7 +1554,7 @@
         <v>361</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1598,7 +1598,7 @@
         <v>361</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1642,7 +1642,7 @@
         <v>361</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1686,7 +1686,7 @@
         <v>361</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1730,7 +1730,7 @@
         <v>361</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1774,7 +1774,7 @@
         <v>361</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1818,7 +1818,7 @@
         <v>361</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1862,7 +1862,7 @@
         <v>361</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1906,7 +1906,7 @@
         <v>361</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1950,7 +1950,7 @@
         <v>361</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1994,7 +1994,7 @@
         <v>361</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2082,7 +2082,7 @@
         <v>361</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2126,7 +2126,7 @@
         <v>361</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2167,7 +2167,7 @@
         <v>361</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2211,7 +2211,7 @@
         <v>361</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2252,7 +2252,7 @@
         <v>361</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2296,7 +2296,7 @@
         <v>361</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2340,7 +2340,7 @@
         <v>361</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2384,7 +2384,7 @@
         <v>361</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2428,7 +2428,7 @@
         <v>361</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2472,7 +2472,7 @@
         <v>361</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2510,7 +2510,7 @@
         <v>361</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2554,7 +2554,7 @@
         <v>361</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2598,7 +2598,7 @@
         <v>361</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2642,7 +2642,7 @@
         <v>361</v>
       </c>
       <c r="O27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2686,7 +2686,7 @@
         <v>361</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2730,7 +2730,7 @@
         <v>361</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2774,7 +2774,7 @@
         <v>361</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2815,7 +2815,7 @@
         <v>361</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2859,7 +2859,7 @@
         <v>361</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2903,7 +2903,7 @@
         <v>361</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2947,7 +2947,7 @@
         <v>361</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2988,7 +2988,7 @@
         <v>361</v>
       </c>
       <c r="O35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3029,7 +3029,7 @@
         <v>361</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3073,7 +3073,7 @@
         <v>361</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3114,7 +3114,7 @@
         <v>361</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3158,7 +3158,7 @@
         <v>361</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3202,7 +3202,7 @@
         <v>361</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3246,7 +3246,7 @@
         <v>361</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3287,7 +3287,7 @@
         <v>361</v>
       </c>
       <c r="O42">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3375,7 +3375,7 @@
         <v>361</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3460,7 +3460,7 @@
         <v>361</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3504,7 +3504,7 @@
         <v>361</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3545,7 +3545,7 @@
         <v>361</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3589,7 +3589,7 @@
         <v>361</v>
       </c>
       <c r="O49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3630,7 +3630,7 @@
         <v>361</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3674,7 +3674,7 @@
         <v>361</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3715,7 +3715,7 @@
         <v>361</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3759,7 +3759,7 @@
         <v>361</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3803,7 +3803,7 @@
         <v>361</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3847,7 +3847,7 @@
         <v>361</v>
       </c>
       <c r="O55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3891,7 +3891,7 @@
         <v>361</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3935,7 +3935,7 @@
         <v>361</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3976,7 +3976,7 @@
         <v>361</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -4020,7 +4020,7 @@
         <v>361</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -4064,7 +4064,7 @@
         <v>361</v>
       </c>
       <c r="O60">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -4152,7 +4152,7 @@
         <v>361</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -4196,7 +4196,7 @@
         <v>361</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4237,7 +4237,7 @@
         <v>361</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4281,7 +4281,7 @@
         <v>361</v>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4325,7 +4325,7 @@
         <v>361</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4369,7 +4369,7 @@
         <v>361</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4413,7 +4413,7 @@
         <v>361</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4457,7 +4457,7 @@
         <v>361</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4501,7 +4501,7 @@
         <v>361</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4586,7 +4586,7 @@
         <v>361</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4630,7 +4630,7 @@
         <v>361</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4674,7 +4674,7 @@
         <v>361</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4718,7 +4718,7 @@
         <v>361</v>
       </c>
       <c r="O75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4762,7 +4762,7 @@
         <v>361</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4847,7 +4847,7 @@
         <v>361</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4891,7 +4891,7 @@
         <v>361</v>
       </c>
       <c r="O79">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4935,7 +4935,7 @@
         <v>361</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4979,7 +4979,7 @@
         <v>361</v>
       </c>
       <c r="O81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -5023,7 +5023,7 @@
         <v>361</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -5111,7 +5111,7 @@
         <v>361</v>
       </c>
       <c r="O84">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -5152,7 +5152,7 @@
         <v>361</v>
       </c>
       <c r="O85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -5196,7 +5196,7 @@
         <v>361</v>
       </c>
       <c r="O86">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -5240,7 +5240,7 @@
         <v>361</v>
       </c>
       <c r="O87">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -5284,7 +5284,7 @@
         <v>361</v>
       </c>
       <c r="O88">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -5325,7 +5325,7 @@
         <v>361</v>
       </c>
       <c r="O89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5369,7 +5369,7 @@
         <v>361</v>
       </c>
       <c r="O90">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5413,7 +5413,7 @@
         <v>361</v>
       </c>
       <c r="O91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5457,7 +5457,7 @@
         <v>361</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5545,7 +5545,7 @@
         <v>361</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5554,329 +5554,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2">
-        <v>651</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L2" t="s">
-        <v>312</v>
-      </c>
-      <c r="M2" t="s">
-        <v>360</v>
-      </c>
-      <c r="N2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3">
-        <v>1379</v>
-      </c>
-      <c r="G3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" t="s">
-        <v>236</v>
-      </c>
-      <c r="L3" t="s">
-        <v>320</v>
-      </c>
-      <c r="M3" t="s">
-        <v>360</v>
-      </c>
-      <c r="N3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4">
-        <v>652</v>
-      </c>
-      <c r="G4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K4" t="s">
-        <v>238</v>
-      </c>
-      <c r="L4" t="s">
-        <v>322</v>
-      </c>
-      <c r="M4" t="s">
-        <v>360</v>
-      </c>
-      <c r="N4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5">
-        <v>374</v>
-      </c>
-      <c r="G5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J5" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" t="s">
-        <v>240</v>
-      </c>
-      <c r="L5" t="s">
-        <v>324</v>
-      </c>
-      <c r="M5" t="s">
-        <v>360</v>
-      </c>
-      <c r="N5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6">
-        <v>375</v>
-      </c>
-      <c r="G6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K6" t="s">
-        <v>246</v>
-      </c>
-      <c r="L6" t="s">
-        <v>330</v>
-      </c>
-      <c r="M6" t="s">
-        <v>360</v>
-      </c>
-      <c r="N6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7">
-        <v>1380</v>
-      </c>
-      <c r="G7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M7" t="s">
-        <v>360</v>
-      </c>
-      <c r="N7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8">
-        <v>4602</v>
-      </c>
-      <c r="G8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" t="s">
-        <v>255</v>
-      </c>
-      <c r="L8" t="s">
-        <v>339</v>
-      </c>
-      <c r="M8" t="s">
-        <v>360</v>
-      </c>
-      <c r="N8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N22"/>
   <sheetViews>
@@ -5927,25 +5604,25 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2">
-        <v>6258</v>
+        <v>6170</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I2" t="s">
         <v>162</v>
@@ -5954,10 +5631,10 @@
         <v>171</v>
       </c>
       <c r="K2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M2" t="s">
         <v>358</v>
@@ -6009,37 +5686,37 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4">
-        <v>1516</v>
+        <v>6342</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I4" t="s">
         <v>163</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M4" t="s">
         <v>358</v>
@@ -6050,37 +5727,37 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>1326</v>
+        <v>6223</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J5" t="s">
         <v>171</v>
       </c>
       <c r="K5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M5" t="s">
         <v>358</v>
@@ -6132,7 +5809,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -6141,25 +5818,28 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7">
-        <v>1993</v>
+        <v>6201</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J7" t="s">
         <v>171</v>
       </c>
       <c r="K7" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="L7" t="s">
+        <v>285</v>
       </c>
       <c r="M7" t="s">
         <v>358</v>
@@ -6170,7 +5850,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -6182,25 +5862,25 @@
         <v>77</v>
       </c>
       <c r="F8">
-        <v>1840</v>
+        <v>1200</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J8" t="s">
         <v>171</v>
       </c>
       <c r="K8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M8" t="s">
         <v>358</v>
@@ -6211,37 +5891,37 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>76</v>
       </c>
       <c r="F9">
-        <v>6142</v>
+        <v>6032</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M9" t="s">
         <v>358</v>
@@ -6252,7 +5932,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -6264,25 +5944,25 @@
         <v>76</v>
       </c>
       <c r="F10">
-        <v>6156</v>
+        <v>6042</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M10" t="s">
         <v>358</v>
@@ -6293,25 +5973,25 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>76</v>
       </c>
       <c r="F11">
-        <v>6252</v>
+        <v>6132</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I11" t="s">
         <v>162</v>
@@ -6320,10 +6000,10 @@
         <v>171</v>
       </c>
       <c r="K11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L11" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="M11" t="s">
         <v>358</v>
@@ -6334,37 +6014,37 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>76</v>
       </c>
       <c r="F12">
-        <v>6132</v>
+        <v>6292</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M12" t="s">
         <v>358</v>
@@ -6416,37 +6096,37 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>76</v>
       </c>
       <c r="F14">
-        <v>6033</v>
+        <v>6056</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H14" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K14" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L14" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M14" t="s">
         <v>358</v>
@@ -6457,25 +6137,25 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
         <v>76</v>
       </c>
       <c r="F15">
-        <v>6253</v>
+        <v>6259</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="I15" t="s">
         <v>162</v>
@@ -6484,10 +6164,10 @@
         <v>171</v>
       </c>
       <c r="K15" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L15" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M15" t="s">
         <v>358</v>
@@ -6498,37 +6178,37 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>30</v>
+      <c r="C16" t="s">
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16">
-        <v>6184</v>
+        <v>1517</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L16" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="M16" t="s">
         <v>358</v>
@@ -6539,37 +6219,37 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
+      <c r="D17" t="s">
+        <v>73</v>
       </c>
       <c r="E17" t="s">
         <v>76</v>
       </c>
       <c r="F17">
-        <v>6143</v>
+        <v>6140</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L17" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="M17" t="s">
         <v>358</v>
@@ -6580,37 +6260,37 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
-        <v>73</v>
+      <c r="C18" t="s">
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18">
-        <v>6140</v>
+        <v>1327</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
         <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L18" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M18" t="s">
         <v>358</v>
@@ -6621,37 +6301,37 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
         <v>76</v>
       </c>
       <c r="F19">
-        <v>6217</v>
+        <v>6239</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s">
         <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L19" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="M19" t="s">
         <v>358</v>
@@ -6662,37 +6342,37 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F20">
-        <v>6297</v>
+        <v>2321</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
         <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M20" t="s">
         <v>358</v>
@@ -6703,34 +6383,37 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
         <v>76</v>
       </c>
       <c r="F21">
-        <v>6343</v>
+        <v>6297</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J21" t="s">
         <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="L21" t="s">
+        <v>348</v>
       </c>
       <c r="M21" t="s">
         <v>358</v>
@@ -6741,37 +6424,34 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" t="s">
-        <v>48</v>
+      <c r="C22" t="s">
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22">
-        <v>1802</v>
+        <v>6343</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
         <v>163</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" t="s">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c r="M22" t="s">
         <v>358</v>
@@ -6785,7 +6465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -6836,37 +6516,37 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2">
-        <v>2700</v>
+        <v>3016</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M2" t="s">
         <v>359</v>
@@ -6877,31 +6557,34 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>60</v>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3">
-        <v>162</v>
+        <v>4144</v>
       </c>
       <c r="G3" t="s">
         <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K3" t="s">
-        <v>211</v>
+        <v>219</v>
+      </c>
+      <c r="L3" t="s">
+        <v>306</v>
       </c>
       <c r="M3" t="s">
         <v>359</v>
@@ -6912,37 +6595,34 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>61</v>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F4">
-        <v>3016</v>
+        <v>1316</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="L4" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M4" t="s">
         <v>359</v>
@@ -6953,37 +6633,37 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
+      <c r="D5" t="s">
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>76</v>
       </c>
       <c r="F5">
-        <v>4001</v>
+        <v>2046</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
         <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K5" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L5" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M5" t="s">
         <v>359</v>
@@ -6994,19 +6674,19 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
+      <c r="D6" t="s">
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>80</v>
       </c>
       <c r="F6">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="G6" t="s">
         <v>109</v>
@@ -7018,10 +6698,10 @@
         <v>183</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L6" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M6" t="s">
         <v>359</v>
@@ -7114,37 +6794,37 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>76</v>
       </c>
       <c r="F9">
-        <v>3001</v>
+        <v>1011</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="I9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J9" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="K9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M9" t="s">
         <v>359</v>
@@ -7155,37 +6835,37 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>76</v>
       </c>
       <c r="F10">
-        <v>2047</v>
+        <v>2025</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I10" t="s">
         <v>163</v>
       </c>
       <c r="J10" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="L10" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M10" t="s">
         <v>359</v>
@@ -7196,37 +6876,37 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
         <v>76</v>
       </c>
       <c r="F11">
-        <v>1021</v>
+        <v>2047</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K11" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="L11" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="M11" t="s">
         <v>359</v>
@@ -7311,6 +6991,915 @@
         <v>359</v>
       </c>
       <c r="N13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>2320</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" t="s">
+        <v>283</v>
+      </c>
+      <c r="M2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3">
+        <v>1516</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" t="s">
+        <v>288</v>
+      </c>
+      <c r="M3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4">
+        <v>6027</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M4" t="s">
+        <v>358</v>
+      </c>
+      <c r="N4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>6107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L5" t="s">
+        <v>294</v>
+      </c>
+      <c r="M5" t="s">
+        <v>358</v>
+      </c>
+      <c r="N5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6">
+        <v>1993</v>
+      </c>
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" t="s">
+        <v>358</v>
+      </c>
+      <c r="N6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>6238</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M7" t="s">
+        <v>358</v>
+      </c>
+      <c r="N7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>6142</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" t="s">
+        <v>302</v>
+      </c>
+      <c r="M8" t="s">
+        <v>358</v>
+      </c>
+      <c r="N8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>6252</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" t="s">
+        <v>286</v>
+      </c>
+      <c r="M9" t="s">
+        <v>358</v>
+      </c>
+      <c r="N9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <v>6472</v>
+      </c>
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" t="s">
+        <v>222</v>
+      </c>
+      <c r="L10" t="s">
+        <v>309</v>
+      </c>
+      <c r="M10" t="s">
+        <v>358</v>
+      </c>
+      <c r="N10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11">
+        <v>1401</v>
+      </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" t="s">
+        <v>224</v>
+      </c>
+      <c r="M11" t="s">
+        <v>358</v>
+      </c>
+      <c r="N11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12">
+        <v>6181</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" t="s">
+        <v>229</v>
+      </c>
+      <c r="L12" t="s">
+        <v>314</v>
+      </c>
+      <c r="M12" t="s">
+        <v>358</v>
+      </c>
+      <c r="N12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13">
+        <v>6043</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" t="s">
+        <v>235</v>
+      </c>
+      <c r="L13" t="s">
+        <v>319</v>
+      </c>
+      <c r="M13" t="s">
+        <v>358</v>
+      </c>
+      <c r="N13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <v>6033</v>
+      </c>
+      <c r="G14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" t="s">
+        <v>162</v>
+      </c>
+      <c r="J14" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" t="s">
+        <v>239</v>
+      </c>
+      <c r="L14" t="s">
+        <v>323</v>
+      </c>
+      <c r="M14" t="s">
+        <v>358</v>
+      </c>
+      <c r="N14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>6253</v>
+      </c>
+      <c r="G15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L15" t="s">
+        <v>325</v>
+      </c>
+      <c r="M15" t="s">
+        <v>358</v>
+      </c>
+      <c r="N15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16">
+        <v>6157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" t="s">
+        <v>242</v>
+      </c>
+      <c r="L16" t="s">
+        <v>326</v>
+      </c>
+      <c r="M16" t="s">
+        <v>358</v>
+      </c>
+      <c r="N16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17">
+        <v>6143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>247</v>
+      </c>
+      <c r="L17" t="s">
+        <v>331</v>
+      </c>
+      <c r="M17" t="s">
+        <v>358</v>
+      </c>
+      <c r="N17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>6176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>257</v>
+      </c>
+      <c r="L18" t="s">
+        <v>316</v>
+      </c>
+      <c r="M18" t="s">
+        <v>358</v>
+      </c>
+      <c r="N18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19">
+        <v>2114</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" t="s">
+        <v>262</v>
+      </c>
+      <c r="L19" t="s">
+        <v>342</v>
+      </c>
+      <c r="M19" t="s">
+        <v>358</v>
+      </c>
+      <c r="N19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20">
+        <v>6057</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>271</v>
+      </c>
+      <c r="L20" t="s">
+        <v>287</v>
+      </c>
+      <c r="M20" t="s">
+        <v>358</v>
+      </c>
+      <c r="N20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21">
+        <v>6473</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>273</v>
+      </c>
+      <c r="L21" t="s">
+        <v>308</v>
+      </c>
+      <c r="M21" t="s">
+        <v>358</v>
+      </c>
+      <c r="N21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <v>6006</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>281</v>
+      </c>
+      <c r="L22" t="s">
+        <v>357</v>
+      </c>
+      <c r="M22" t="s">
+        <v>358</v>
+      </c>
+      <c r="N22" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7370,7 +7959,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -7379,28 +7968,28 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2">
-        <v>2320</v>
+        <v>6258</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J2" t="s">
         <v>171</v>
       </c>
       <c r="K2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M2" t="s">
         <v>358</v>
@@ -7411,37 +8000,37 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3">
-        <v>6170</v>
+        <v>1154</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M3" t="s">
         <v>358</v>
@@ -7452,37 +8041,37 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4">
-        <v>6223</v>
+        <v>1326</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J4" t="s">
         <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M4" t="s">
         <v>358</v>
@@ -7534,37 +8123,37 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
+      <c r="D6" t="s">
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>6201</v>
+        <v>1840</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
         <v>171</v>
       </c>
       <c r="K6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L6" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="M6" t="s">
         <v>358</v>
@@ -7575,37 +8164,37 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>76</v>
       </c>
       <c r="F7">
-        <v>6238</v>
+        <v>6156</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="M7" t="s">
         <v>358</v>
@@ -7616,37 +8205,37 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>64</v>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>76</v>
       </c>
       <c r="F8">
-        <v>6472</v>
+        <v>6171</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="I8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M8" t="s">
         <v>358</v>
@@ -7657,37 +8246,37 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9">
-        <v>6292</v>
+        <v>1402</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L9" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M9" t="s">
         <v>358</v>
@@ -7698,22 +8287,22 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
+      <c r="D10" t="s">
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>76</v>
       </c>
       <c r="F10">
-        <v>6181</v>
+        <v>6228</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
         <v>124</v>
@@ -7725,10 +8314,10 @@
         <v>171</v>
       </c>
       <c r="K10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L10" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="M10" t="s">
         <v>358</v>
@@ -7739,37 +8328,37 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>76</v>
       </c>
       <c r="F11">
-        <v>6228</v>
+        <v>6184</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K11" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="L11" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M11" t="s">
         <v>358</v>
@@ -7780,37 +8369,37 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12">
-        <v>6043</v>
+        <v>1201</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J12" t="s">
         <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="L12" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M12" t="s">
         <v>358</v>
@@ -7821,37 +8410,37 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
+      <c r="D13" t="s">
+        <v>73</v>
       </c>
       <c r="E13" t="s">
         <v>76</v>
       </c>
       <c r="F13">
-        <v>6157</v>
+        <v>6192</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K13" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="L13" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="M13" t="s">
         <v>358</v>
@@ -7862,37 +8451,37 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14">
-        <v>1201</v>
+        <v>6133</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="I14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
         <v>171</v>
       </c>
       <c r="K14" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="L14" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M14" t="s">
         <v>358</v>
@@ -7903,37 +8492,34 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>73</v>
+      <c r="C15" t="s">
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15">
-        <v>6176</v>
+        <v>1155</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>257</v>
-      </c>
-      <c r="L15" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="M15" t="s">
         <v>358</v>
@@ -7944,25 +8530,25 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
         <v>76</v>
       </c>
       <c r="F16">
-        <v>6133</v>
+        <v>6217</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s">
         <v>162</v>
@@ -7971,10 +8557,10 @@
         <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M16" t="s">
         <v>358</v>
@@ -8023,37 +8609,37 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
-        <v>42</v>
+      <c r="D18" t="s">
+        <v>74</v>
       </c>
       <c r="E18" t="s">
         <v>76</v>
       </c>
       <c r="F18">
-        <v>6239</v>
+        <v>6222</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L18" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M18" t="s">
         <v>358</v>
@@ -8105,37 +8691,37 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
-        <v>46</v>
+      <c r="D20" t="s">
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F20">
-        <v>6057</v>
+        <v>1802</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L20" t="s">
-        <v>287</v>
+        <v>352</v>
       </c>
       <c r="M20" t="s">
         <v>358</v>
@@ -8146,37 +8732,37 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
-        <v>47</v>
+      <c r="D21" t="s">
+        <v>75</v>
       </c>
       <c r="E21" t="s">
         <v>76</v>
       </c>
       <c r="F21">
-        <v>6473</v>
+        <v>6106</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L21" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="M21" t="s">
         <v>358</v>
@@ -8232,915 +8818,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2">
-        <v>1154</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M2" t="s">
-        <v>358</v>
-      </c>
-      <c r="N2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3">
-        <v>6342</v>
-      </c>
-      <c r="G3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K3" t="s">
-        <v>197</v>
-      </c>
-      <c r="L3" t="s">
-        <v>287</v>
-      </c>
-      <c r="M3" t="s">
-        <v>358</v>
-      </c>
-      <c r="N3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4">
-        <v>6027</v>
-      </c>
-      <c r="G4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K4" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-      <c r="M4" t="s">
-        <v>358</v>
-      </c>
-      <c r="N4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5">
-        <v>6107</v>
-      </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L5" t="s">
-        <v>294</v>
-      </c>
-      <c r="M5" t="s">
-        <v>358</v>
-      </c>
-      <c r="N5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6">
-        <v>1200</v>
-      </c>
-      <c r="G6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K6" t="s">
-        <v>209</v>
-      </c>
-      <c r="L6" t="s">
-        <v>298</v>
-      </c>
-      <c r="M6" t="s">
-        <v>358</v>
-      </c>
-      <c r="N6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7">
-        <v>6032</v>
-      </c>
-      <c r="G7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" t="s">
-        <v>162</v>
-      </c>
-      <c r="J7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L7" t="s">
-        <v>301</v>
-      </c>
-      <c r="M7" t="s">
-        <v>358</v>
-      </c>
-      <c r="N7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8">
-        <v>6042</v>
-      </c>
-      <c r="G8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K8" t="s">
-        <v>217</v>
-      </c>
-      <c r="L8" t="s">
-        <v>302</v>
-      </c>
-      <c r="M8" t="s">
-        <v>358</v>
-      </c>
-      <c r="N8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9">
-        <v>1401</v>
-      </c>
-      <c r="G9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I9" t="s">
-        <v>166</v>
-      </c>
-      <c r="J9" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" t="s">
-        <v>224</v>
-      </c>
-      <c r="M9" t="s">
-        <v>358</v>
-      </c>
-      <c r="N9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10">
-        <v>6171</v>
-      </c>
-      <c r="G10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L10" t="s">
-        <v>311</v>
-      </c>
-      <c r="M10" t="s">
-        <v>358</v>
-      </c>
-      <c r="N10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11">
-        <v>1402</v>
-      </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" t="s">
-        <v>166</v>
-      </c>
-      <c r="J11" t="s">
-        <v>171</v>
-      </c>
-      <c r="K11" t="s">
-        <v>232</v>
-      </c>
-      <c r="L11" t="s">
-        <v>317</v>
-      </c>
-      <c r="M11" t="s">
-        <v>358</v>
-      </c>
-      <c r="N11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12">
-        <v>6056</v>
-      </c>
-      <c r="G12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" t="s">
-        <v>178</v>
-      </c>
-      <c r="K12" t="s">
-        <v>244</v>
-      </c>
-      <c r="L12" t="s">
-        <v>328</v>
-      </c>
-      <c r="M12" t="s">
-        <v>358</v>
-      </c>
-      <c r="N12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13">
-        <v>6259</v>
-      </c>
-      <c r="G13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" t="s">
-        <v>162</v>
-      </c>
-      <c r="J13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" t="s">
-        <v>250</v>
-      </c>
-      <c r="L13" t="s">
-        <v>334</v>
-      </c>
-      <c r="M13" t="s">
-        <v>358</v>
-      </c>
-      <c r="N13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1">
-        <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14">
-        <v>1517</v>
-      </c>
-      <c r="G14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" t="s">
-        <v>163</v>
-      </c>
-      <c r="J14" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" t="s">
-        <v>254</v>
-      </c>
-      <c r="L14" t="s">
-        <v>338</v>
-      </c>
-      <c r="M14" t="s">
-        <v>358</v>
-      </c>
-      <c r="N14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15">
-        <v>6192</v>
-      </c>
-      <c r="G15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" t="s">
-        <v>159</v>
-      </c>
-      <c r="I15" t="s">
-        <v>163</v>
-      </c>
-      <c r="J15" t="s">
-        <v>172</v>
-      </c>
-      <c r="K15" t="s">
-        <v>258</v>
-      </c>
-      <c r="L15" t="s">
-        <v>341</v>
-      </c>
-      <c r="M15" t="s">
-        <v>358</v>
-      </c>
-      <c r="N15" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16">
-        <v>1155</v>
-      </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" t="s">
-        <v>163</v>
-      </c>
-      <c r="J16" t="s">
-        <v>173</v>
-      </c>
-      <c r="K16" t="s">
-        <v>260</v>
-      </c>
-      <c r="M16" t="s">
-        <v>358</v>
-      </c>
-      <c r="N16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17">
-        <v>2114</v>
-      </c>
-      <c r="G17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" t="s">
-        <v>163</v>
-      </c>
-      <c r="J17" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" t="s">
-        <v>262</v>
-      </c>
-      <c r="L17" t="s">
-        <v>342</v>
-      </c>
-      <c r="M17" t="s">
-        <v>358</v>
-      </c>
-      <c r="N17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18">
-        <v>1327</v>
-      </c>
-      <c r="G18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I18" t="s">
-        <v>163</v>
-      </c>
-      <c r="J18" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" t="s">
-        <v>266</v>
-      </c>
-      <c r="L18" t="s">
-        <v>345</v>
-      </c>
-      <c r="M18" t="s">
-        <v>358</v>
-      </c>
-      <c r="N18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1">
-        <v>81</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19">
-        <v>2321</v>
-      </c>
-      <c r="G19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" t="s">
-        <v>163</v>
-      </c>
-      <c r="J19" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" t="s">
-        <v>267</v>
-      </c>
-      <c r="L19" t="s">
-        <v>347</v>
-      </c>
-      <c r="M19" t="s">
-        <v>358</v>
-      </c>
-      <c r="N19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20">
-        <v>6222</v>
-      </c>
-      <c r="G20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" t="s">
-        <v>176</v>
-      </c>
-      <c r="K20" t="s">
-        <v>269</v>
-      </c>
-      <c r="L20" t="s">
-        <v>349</v>
-      </c>
-      <c r="M20" t="s">
-        <v>358</v>
-      </c>
-      <c r="N20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21">
-        <v>6106</v>
-      </c>
-      <c r="G21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" t="s">
-        <v>155</v>
-      </c>
-      <c r="I21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" t="s">
-        <v>279</v>
-      </c>
-      <c r="L21" t="s">
-        <v>355</v>
-      </c>
-      <c r="M21" t="s">
-        <v>358</v>
-      </c>
-      <c r="N21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="1">
-        <v>95</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22">
-        <v>6006</v>
-      </c>
-      <c r="G22" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" t="s">
-        <v>172</v>
-      </c>
-      <c r="K22" t="s">
-        <v>281</v>
-      </c>
-      <c r="L22" t="s">
-        <v>357</v>
-      </c>
-      <c r="M22" t="s">
-        <v>358</v>
-      </c>
-      <c r="N22" t="s">
-        <v>361</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N12"/>
   <sheetViews>
@@ -9270,37 +8947,37 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
         <v>76</v>
       </c>
       <c r="F4">
-        <v>2024</v>
+        <v>2700</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M4" t="s">
         <v>359</v>
@@ -9311,34 +8988,31 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
+      <c r="D5" t="s">
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5">
-        <v>4144</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
         <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K5" t="s">
-        <v>219</v>
-      </c>
-      <c r="L5" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="M5" t="s">
         <v>359</v>
@@ -9349,37 +9023,37 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
         <v>76</v>
       </c>
       <c r="F6">
-        <v>2046</v>
+        <v>2024</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I6" t="s">
         <v>163</v>
       </c>
       <c r="J6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K6" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="L6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M6" t="s">
         <v>359</v>
@@ -9390,34 +9064,37 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>66</v>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F7">
-        <v>1317</v>
+        <v>4001</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="H7" t="s">
+        <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M7" t="s">
         <v>359</v>
@@ -9466,37 +9143,37 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>76</v>
       </c>
       <c r="F9">
-        <v>1011</v>
+        <v>3001</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J9" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="K9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L9" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M9" t="s">
         <v>359</v>
@@ -9507,37 +9184,37 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
+      <c r="D10" t="s">
+        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>76</v>
       </c>
       <c r="F10">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="I10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K10" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="L10" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M10" t="s">
         <v>359</v>
@@ -9548,37 +9225,37 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>40</v>
+      <c r="C11" t="s">
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>76</v>
       </c>
       <c r="F11">
-        <v>2014</v>
+        <v>1021</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="I11" t="s">
         <v>164</v>
       </c>
       <c r="J11" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K11" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L11" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="M11" t="s">
         <v>359</v>
@@ -9625,6 +9302,329 @@
         <v>359</v>
       </c>
       <c r="N12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2">
+        <v>651</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M2" t="s">
+        <v>360</v>
+      </c>
+      <c r="N2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3">
+        <v>1379</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" t="s">
+        <v>236</v>
+      </c>
+      <c r="L3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>652</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" t="s">
+        <v>322</v>
+      </c>
+      <c r="M4" t="s">
+        <v>360</v>
+      </c>
+      <c r="N4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5">
+        <v>374</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" t="s">
+        <v>324</v>
+      </c>
+      <c r="M5" t="s">
+        <v>360</v>
+      </c>
+      <c r="N5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6">
+        <v>375</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" t="s">
+        <v>246</v>
+      </c>
+      <c r="L6" t="s">
+        <v>330</v>
+      </c>
+      <c r="M6" t="s">
+        <v>360</v>
+      </c>
+      <c r="N6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <v>1380</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M7" t="s">
+        <v>360</v>
+      </c>
+      <c r="N7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>4602</v>
+      </c>
+      <c r="G8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L8" t="s">
+        <v>339</v>
+      </c>
+      <c r="M8" t="s">
+        <v>360</v>
+      </c>
+      <c r="N8" t="s">
         <v>361</v>
       </c>
     </row>

--- a/Conducteur2022-04-09-Journee.xlsx
+++ b/Conducteur2022-04-09-Journee.xlsx
@@ -14,13 +14,17 @@
     <sheet name="Conducteur 4" sheetId="5" r:id="rId5"/>
     <sheet name="Conducteur 5" sheetId="6" r:id="rId6"/>
     <sheet name="Conducteur 6" sheetId="7" r:id="rId7"/>
+    <sheet name="Conducteur 7" sheetId="8" r:id="rId8"/>
+    <sheet name="Conducteur 8" sheetId="9" r:id="rId9"/>
+    <sheet name="Conducteur 9" sheetId="10" r:id="rId10"/>
+    <sheet name="Conducteur 10" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="362">
   <si>
     <t>Date</t>
   </si>
@@ -1554,7 +1558,7 @@
         <v>361</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1642,7 +1646,7 @@
         <v>361</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1686,7 +1690,7 @@
         <v>361</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1730,7 +1734,7 @@
         <v>361</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1774,7 +1778,7 @@
         <v>361</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1818,7 +1822,7 @@
         <v>361</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1950,7 +1954,7 @@
         <v>361</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1994,7 +1998,7 @@
         <v>361</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2038,7 +2042,7 @@
         <v>361</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2082,7 +2086,7 @@
         <v>361</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2126,7 +2130,7 @@
         <v>361</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2167,7 +2171,7 @@
         <v>361</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2211,7 +2215,7 @@
         <v>361</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2252,7 +2256,7 @@
         <v>361</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2384,7 +2388,7 @@
         <v>361</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2428,7 +2432,7 @@
         <v>361</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2472,7 +2476,7 @@
         <v>361</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2510,7 +2514,7 @@
         <v>361</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2554,7 +2558,7 @@
         <v>361</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2598,7 +2602,7 @@
         <v>361</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2642,7 +2646,7 @@
         <v>361</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2686,7 +2690,7 @@
         <v>361</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2730,7 +2734,7 @@
         <v>361</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2774,7 +2778,7 @@
         <v>361</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2815,7 +2819,7 @@
         <v>361</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2859,7 +2863,7 @@
         <v>361</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2903,7 +2907,7 @@
         <v>361</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2947,7 +2951,7 @@
         <v>361</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2988,7 +2992,7 @@
         <v>361</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3029,7 +3033,7 @@
         <v>361</v>
       </c>
       <c r="O36">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3073,7 +3077,7 @@
         <v>361</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3114,7 +3118,7 @@
         <v>361</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3158,7 +3162,7 @@
         <v>361</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3202,7 +3206,7 @@
         <v>361</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3246,7 +3250,7 @@
         <v>361</v>
       </c>
       <c r="O41">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3331,7 +3335,7 @@
         <v>361</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3375,7 +3379,7 @@
         <v>361</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3419,7 +3423,7 @@
         <v>361</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3460,7 +3464,7 @@
         <v>361</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3545,7 +3549,7 @@
         <v>361</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3589,7 +3593,7 @@
         <v>361</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3630,7 +3634,7 @@
         <v>361</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3674,7 +3678,7 @@
         <v>361</v>
       </c>
       <c r="O51">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3715,7 +3719,7 @@
         <v>361</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3759,7 +3763,7 @@
         <v>361</v>
       </c>
       <c r="O53">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3803,7 +3807,7 @@
         <v>361</v>
       </c>
       <c r="O54">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3891,7 +3895,7 @@
         <v>361</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3935,7 +3939,7 @@
         <v>361</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3976,7 +3980,7 @@
         <v>361</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -4020,7 +4024,7 @@
         <v>361</v>
       </c>
       <c r="O59">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -4108,7 +4112,7 @@
         <v>361</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -4152,7 +4156,7 @@
         <v>361</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -4196,7 +4200,7 @@
         <v>361</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4237,7 +4241,7 @@
         <v>361</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4281,7 +4285,7 @@
         <v>361</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4325,7 +4329,7 @@
         <v>361</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4369,7 +4373,7 @@
         <v>361</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4457,7 +4461,7 @@
         <v>361</v>
       </c>
       <c r="O69">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4501,7 +4505,7 @@
         <v>361</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4545,7 +4549,7 @@
         <v>361</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4586,7 +4590,7 @@
         <v>361</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4630,7 +4634,7 @@
         <v>361</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4674,7 +4678,7 @@
         <v>361</v>
       </c>
       <c r="O74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4718,7 +4722,7 @@
         <v>361</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4762,7 +4766,7 @@
         <v>361</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4803,7 +4807,7 @@
         <v>361</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4847,7 +4851,7 @@
         <v>361</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4891,7 +4895,7 @@
         <v>361</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4935,7 +4939,7 @@
         <v>361</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4979,7 +4983,7 @@
         <v>361</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -5023,7 +5027,7 @@
         <v>361</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -5067,7 +5071,7 @@
         <v>361</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -5152,7 +5156,7 @@
         <v>361</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -5240,7 +5244,7 @@
         <v>361</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -5284,7 +5288,7 @@
         <v>361</v>
       </c>
       <c r="O88">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -5325,7 +5329,7 @@
         <v>361</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5369,7 +5373,7 @@
         <v>361</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5457,7 +5461,7 @@
         <v>361</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5501,7 +5505,7 @@
         <v>361</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5545,7 +5549,7 @@
         <v>361</v>
       </c>
       <c r="O94">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5553,9 +5557,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5604,40 +5608,40 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2">
-        <v>6170</v>
+        <v>3016</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L2" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="M2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N2" t="s">
         <v>361</v>
@@ -5645,40 +5649,40 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>76</v>
       </c>
       <c r="F3">
-        <v>6180</v>
+        <v>2024</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K3" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="L3" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="M3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N3" t="s">
         <v>361</v>
@@ -5686,40 +5690,37 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>55</v>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F4">
-        <v>6342</v>
+        <v>4144</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="K4" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="L4" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="M4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N4" t="s">
         <v>361</v>
@@ -5727,40 +5728,37 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F5">
-        <v>6223</v>
+        <v>1316</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="J5" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="K5" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="L5" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="M5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N5" t="s">
         <v>361</v>
@@ -5768,40 +5766,37 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F6">
-        <v>6520</v>
+        <v>4145</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="K6" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="L6" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="M6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N6" t="s">
         <v>361</v>
@@ -5809,40 +5804,40 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>76</v>
       </c>
       <c r="F7">
-        <v>6201</v>
+        <v>2025</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K7" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="L7" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="M7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N7" t="s">
         <v>361</v>
@@ -5850,40 +5845,40 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>57</v>
+      <c r="C8" t="s">
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8">
-        <v>1200</v>
+        <v>3001</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="K8" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="L8" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="M8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N8" t="s">
         <v>361</v>
@@ -5891,572 +5886,42 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>59</v>
+      <c r="C9" t="s">
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>76</v>
       </c>
       <c r="F9">
-        <v>6032</v>
+        <v>2047</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K9" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="L9" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="M9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10">
-        <v>6042</v>
-      </c>
-      <c r="G10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" t="s">
-        <v>173</v>
-      </c>
-      <c r="K10" t="s">
-        <v>217</v>
-      </c>
-      <c r="L10" t="s">
-        <v>302</v>
-      </c>
-      <c r="M10" t="s">
-        <v>358</v>
-      </c>
-      <c r="N10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11">
-        <v>6132</v>
-      </c>
-      <c r="G11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" t="s">
-        <v>162</v>
-      </c>
-      <c r="J11" t="s">
-        <v>171</v>
-      </c>
-      <c r="K11" t="s">
-        <v>221</v>
-      </c>
-      <c r="L11" t="s">
-        <v>308</v>
-      </c>
-      <c r="M11" t="s">
-        <v>358</v>
-      </c>
-      <c r="N11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12">
-        <v>6292</v>
-      </c>
-      <c r="G12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J12" t="s">
-        <v>176</v>
-      </c>
-      <c r="K12" t="s">
-        <v>228</v>
-      </c>
-      <c r="L12" t="s">
-        <v>309</v>
-      </c>
-      <c r="M12" t="s">
-        <v>358</v>
-      </c>
-      <c r="N12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13">
-        <v>6216</v>
-      </c>
-      <c r="G13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" t="s">
-        <v>162</v>
-      </c>
-      <c r="J13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" t="s">
-        <v>231</v>
-      </c>
-      <c r="L13" t="s">
-        <v>316</v>
-      </c>
-      <c r="M13" t="s">
-        <v>358</v>
-      </c>
-      <c r="N13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14">
-        <v>6056</v>
-      </c>
-      <c r="G14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I14" t="s">
-        <v>165</v>
-      </c>
-      <c r="J14" t="s">
-        <v>178</v>
-      </c>
-      <c r="K14" t="s">
-        <v>244</v>
-      </c>
-      <c r="L14" t="s">
-        <v>328</v>
-      </c>
-      <c r="M14" t="s">
-        <v>358</v>
-      </c>
-      <c r="N14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15">
-        <v>6259</v>
-      </c>
-      <c r="G15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" t="s">
-        <v>162</v>
-      </c>
-      <c r="J15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" t="s">
-        <v>250</v>
-      </c>
-      <c r="L15" t="s">
-        <v>334</v>
-      </c>
-      <c r="M15" t="s">
-        <v>358</v>
-      </c>
-      <c r="N15" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16">
-        <v>1517</v>
-      </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" t="s">
-        <v>163</v>
-      </c>
-      <c r="J16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K16" t="s">
-        <v>254</v>
-      </c>
-      <c r="L16" t="s">
-        <v>338</v>
-      </c>
-      <c r="M16" t="s">
-        <v>358</v>
-      </c>
-      <c r="N16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17">
-        <v>6140</v>
-      </c>
-      <c r="G17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I17" t="s">
-        <v>162</v>
-      </c>
-      <c r="J17" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L17" t="s">
-        <v>340</v>
-      </c>
-      <c r="M17" t="s">
-        <v>358</v>
-      </c>
-      <c r="N17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18">
-        <v>1327</v>
-      </c>
-      <c r="G18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I18" t="s">
-        <v>163</v>
-      </c>
-      <c r="J18" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" t="s">
-        <v>266</v>
-      </c>
-      <c r="L18" t="s">
-        <v>345</v>
-      </c>
-      <c r="M18" t="s">
-        <v>358</v>
-      </c>
-      <c r="N18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19">
-        <v>6239</v>
-      </c>
-      <c r="G19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" t="s">
-        <v>163</v>
-      </c>
-      <c r="J19" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" t="s">
-        <v>267</v>
-      </c>
-      <c r="L19" t="s">
-        <v>346</v>
-      </c>
-      <c r="M19" t="s">
-        <v>358</v>
-      </c>
-      <c r="N19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20">
-        <v>2321</v>
-      </c>
-      <c r="G20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" t="s">
-        <v>163</v>
-      </c>
-      <c r="J20" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" t="s">
-        <v>267</v>
-      </c>
-      <c r="L20" t="s">
-        <v>347</v>
-      </c>
-      <c r="M20" t="s">
-        <v>358</v>
-      </c>
-      <c r="N20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21">
-        <v>6297</v>
-      </c>
-      <c r="G21" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" t="s">
-        <v>161</v>
-      </c>
-      <c r="I21" t="s">
-        <v>162</v>
-      </c>
-      <c r="J21" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" t="s">
-        <v>268</v>
-      </c>
-      <c r="L21" t="s">
-        <v>348</v>
-      </c>
-      <c r="M21" t="s">
-        <v>358</v>
-      </c>
-      <c r="N21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="1">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22">
-        <v>6343</v>
-      </c>
-      <c r="G22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" t="s">
-        <v>272</v>
-      </c>
-      <c r="M22" t="s">
-        <v>358</v>
-      </c>
-      <c r="N22" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6465,7 +5930,383 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2">
+        <v>161</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>296</v>
+      </c>
+      <c r="M2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>2700</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L3" t="s">
+        <v>300</v>
+      </c>
+      <c r="M3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4">
+        <v>4001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" t="s">
+        <v>307</v>
+      </c>
+      <c r="M4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>2046</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" t="s">
+        <v>227</v>
+      </c>
+      <c r="L5" t="s">
+        <v>313</v>
+      </c>
+      <c r="M5" t="s">
+        <v>359</v>
+      </c>
+      <c r="N5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>1020</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L6" t="s">
+        <v>321</v>
+      </c>
+      <c r="M6" t="s">
+        <v>359</v>
+      </c>
+      <c r="N6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>1021</v>
+      </c>
+      <c r="G7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M7" t="s">
+        <v>359</v>
+      </c>
+      <c r="N7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8">
+        <v>7991</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" t="s">
+        <v>276</v>
+      </c>
+      <c r="L8" t="s">
+        <v>319</v>
+      </c>
+      <c r="M8" t="s">
+        <v>359</v>
+      </c>
+      <c r="N8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>3017</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" t="s">
+        <v>277</v>
+      </c>
+      <c r="L9" t="s">
+        <v>353</v>
+      </c>
+      <c r="M9" t="s">
+        <v>359</v>
+      </c>
+      <c r="N9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -6516,40 +6357,40 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2">
-        <v>3016</v>
+        <v>6258</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K2" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="M2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N2" t="s">
         <v>361</v>
@@ -6557,37 +6398,40 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F3">
-        <v>4144</v>
+        <v>6223</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K3" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="L3" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="M3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N3" t="s">
         <v>361</v>
@@ -6595,37 +6439,40 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4">
-        <v>1316</v>
+        <v>6107</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>133</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="L4" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="M4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N4" t="s">
         <v>361</v>
@@ -6633,40 +6480,37 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5">
-        <v>2046</v>
+        <v>1993</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
         <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K5" t="s">
-        <v>227</v>
-      </c>
-      <c r="L5" t="s">
-        <v>313</v>
+        <v>207</v>
       </c>
       <c r="M5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N5" t="s">
         <v>361</v>
@@ -6674,37 +6518,40 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>1317</v>
+        <v>1200</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+      <c r="H6" t="s">
+        <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K6" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L6" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="M6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N6" t="s">
         <v>361</v>
@@ -6712,40 +6559,40 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>76</v>
       </c>
       <c r="F7">
-        <v>1020</v>
+        <v>6156</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="K7" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="L7" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="M7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N7" t="s">
         <v>361</v>
@@ -6753,40 +6600,40 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>76</v>
       </c>
       <c r="F8">
-        <v>4063</v>
+        <v>6184</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N8" t="s">
         <v>361</v>
@@ -6794,40 +6641,40 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9">
-        <v>1011</v>
+        <v>1201</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N9" t="s">
         <v>361</v>
@@ -6835,40 +6682,40 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
+      <c r="D10" t="s">
+        <v>73</v>
       </c>
       <c r="E10" t="s">
         <v>76</v>
       </c>
       <c r="F10">
-        <v>2025</v>
+        <v>6140</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K10" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N10" t="s">
         <v>361</v>
@@ -6876,40 +6723,40 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>40</v>
+      <c r="D11" t="s">
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11">
-        <v>2047</v>
+        <v>2114</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
         <v>163</v>
       </c>
       <c r="J11" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="K11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N11" t="s">
         <v>361</v>
@@ -6917,37 +6764,37 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F12">
-        <v>7991</v>
+        <v>6229</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>160</v>
       </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J12" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>276</v>
-      </c>
-      <c r="L12" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="M12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N12" t="s">
         <v>361</v>
@@ -6955,40 +6802,40 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13">
-        <v>6026</v>
+        <v>1802</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="I13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N13" t="s">
         <v>361</v>
@@ -6999,2318 +6846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2">
-        <v>2320</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M2" t="s">
-        <v>358</v>
-      </c>
-      <c r="N2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3">
-        <v>1516</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" t="s">
-        <v>198</v>
-      </c>
-      <c r="L3" t="s">
-        <v>288</v>
-      </c>
-      <c r="M3" t="s">
-        <v>358</v>
-      </c>
-      <c r="N3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4">
-        <v>6027</v>
-      </c>
-      <c r="G4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K4" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-      <c r="M4" t="s">
-        <v>358</v>
-      </c>
-      <c r="N4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5">
-        <v>6107</v>
-      </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L5" t="s">
-        <v>294</v>
-      </c>
-      <c r="M5" t="s">
-        <v>358</v>
-      </c>
-      <c r="N5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6">
-        <v>1993</v>
-      </c>
-      <c r="G6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K6" t="s">
-        <v>207</v>
-      </c>
-      <c r="M6" t="s">
-        <v>358</v>
-      </c>
-      <c r="N6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7">
-        <v>6238</v>
-      </c>
-      <c r="G7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M7" t="s">
-        <v>358</v>
-      </c>
-      <c r="N7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8">
-        <v>6142</v>
-      </c>
-      <c r="G8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" t="s">
-        <v>165</v>
-      </c>
-      <c r="J8" t="s">
-        <v>178</v>
-      </c>
-      <c r="K8" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" t="s">
-        <v>302</v>
-      </c>
-      <c r="M8" t="s">
-        <v>358</v>
-      </c>
-      <c r="N8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9">
-        <v>6252</v>
-      </c>
-      <c r="G9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" t="s">
-        <v>218</v>
-      </c>
-      <c r="L9" t="s">
-        <v>286</v>
-      </c>
-      <c r="M9" t="s">
-        <v>358</v>
-      </c>
-      <c r="N9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10">
-        <v>6472</v>
-      </c>
-      <c r="G10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L10" t="s">
-        <v>309</v>
-      </c>
-      <c r="M10" t="s">
-        <v>358</v>
-      </c>
-      <c r="N10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11">
-        <v>1401</v>
-      </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" t="s">
-        <v>166</v>
-      </c>
-      <c r="J11" t="s">
-        <v>171</v>
-      </c>
-      <c r="K11" t="s">
-        <v>224</v>
-      </c>
-      <c r="M11" t="s">
-        <v>358</v>
-      </c>
-      <c r="N11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12">
-        <v>6181</v>
-      </c>
-      <c r="G12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" t="s">
-        <v>162</v>
-      </c>
-      <c r="J12" t="s">
-        <v>171</v>
-      </c>
-      <c r="K12" t="s">
-        <v>229</v>
-      </c>
-      <c r="L12" t="s">
-        <v>314</v>
-      </c>
-      <c r="M12" t="s">
-        <v>358</v>
-      </c>
-      <c r="N12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13">
-        <v>6043</v>
-      </c>
-      <c r="G13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" t="s">
-        <v>163</v>
-      </c>
-      <c r="J13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" t="s">
-        <v>235</v>
-      </c>
-      <c r="L13" t="s">
-        <v>319</v>
-      </c>
-      <c r="M13" t="s">
-        <v>358</v>
-      </c>
-      <c r="N13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14">
-        <v>6033</v>
-      </c>
-      <c r="G14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" t="s">
-        <v>162</v>
-      </c>
-      <c r="J14" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" t="s">
-        <v>239</v>
-      </c>
-      <c r="L14" t="s">
-        <v>323</v>
-      </c>
-      <c r="M14" t="s">
-        <v>358</v>
-      </c>
-      <c r="N14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15">
-        <v>6253</v>
-      </c>
-      <c r="G15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" t="s">
-        <v>162</v>
-      </c>
-      <c r="J15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" t="s">
-        <v>241</v>
-      </c>
-      <c r="L15" t="s">
-        <v>325</v>
-      </c>
-      <c r="M15" t="s">
-        <v>358</v>
-      </c>
-      <c r="N15" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16">
-        <v>6157</v>
-      </c>
-      <c r="G16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" t="s">
-        <v>165</v>
-      </c>
-      <c r="J16" t="s">
-        <v>178</v>
-      </c>
-      <c r="K16" t="s">
-        <v>242</v>
-      </c>
-      <c r="L16" t="s">
-        <v>326</v>
-      </c>
-      <c r="M16" t="s">
-        <v>358</v>
-      </c>
-      <c r="N16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17">
-        <v>6143</v>
-      </c>
-      <c r="G17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" t="s">
-        <v>176</v>
-      </c>
-      <c r="K17" t="s">
-        <v>247</v>
-      </c>
-      <c r="L17" t="s">
-        <v>331</v>
-      </c>
-      <c r="M17" t="s">
-        <v>358</v>
-      </c>
-      <c r="N17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18">
-        <v>6176</v>
-      </c>
-      <c r="G18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I18" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" t="s">
-        <v>257</v>
-      </c>
-      <c r="L18" t="s">
-        <v>316</v>
-      </c>
-      <c r="M18" t="s">
-        <v>358</v>
-      </c>
-      <c r="N18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1">
-        <v>75</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19">
-        <v>2114</v>
-      </c>
-      <c r="G19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" t="s">
-        <v>163</v>
-      </c>
-      <c r="J19" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" t="s">
-        <v>262</v>
-      </c>
-      <c r="L19" t="s">
-        <v>342</v>
-      </c>
-      <c r="M19" t="s">
-        <v>358</v>
-      </c>
-      <c r="N19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1">
-        <v>85</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20">
-        <v>6057</v>
-      </c>
-      <c r="G20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" t="s">
-        <v>178</v>
-      </c>
-      <c r="K20" t="s">
-        <v>271</v>
-      </c>
-      <c r="L20" t="s">
-        <v>287</v>
-      </c>
-      <c r="M20" t="s">
-        <v>358</v>
-      </c>
-      <c r="N20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21">
-        <v>6473</v>
-      </c>
-      <c r="G21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J21" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" t="s">
-        <v>273</v>
-      </c>
-      <c r="L21" t="s">
-        <v>308</v>
-      </c>
-      <c r="M21" t="s">
-        <v>358</v>
-      </c>
-      <c r="N21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="1">
-        <v>95</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22">
-        <v>6006</v>
-      </c>
-      <c r="G22" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" t="s">
-        <v>172</v>
-      </c>
-      <c r="K22" t="s">
-        <v>281</v>
-      </c>
-      <c r="L22" t="s">
-        <v>357</v>
-      </c>
-      <c r="M22" t="s">
-        <v>358</v>
-      </c>
-      <c r="N22" t="s">
-        <v>361</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2">
-        <v>6258</v>
-      </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" t="s">
-        <v>192</v>
-      </c>
-      <c r="L2" t="s">
-        <v>282</v>
-      </c>
-      <c r="M2" t="s">
-        <v>358</v>
-      </c>
-      <c r="N2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3">
-        <v>1154</v>
-      </c>
-      <c r="G3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K3" t="s">
-        <v>196</v>
-      </c>
-      <c r="L3" t="s">
-        <v>286</v>
-      </c>
-      <c r="M3" t="s">
-        <v>358</v>
-      </c>
-      <c r="N3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4">
-        <v>1326</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L4" t="s">
-        <v>292</v>
-      </c>
-      <c r="M4" t="s">
-        <v>358</v>
-      </c>
-      <c r="N4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5">
-        <v>6007</v>
-      </c>
-      <c r="G5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L5" t="s">
-        <v>293</v>
-      </c>
-      <c r="M5" t="s">
-        <v>358</v>
-      </c>
-      <c r="N5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6">
-        <v>1840</v>
-      </c>
-      <c r="G6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K6" t="s">
-        <v>210</v>
-      </c>
-      <c r="L6" t="s">
-        <v>299</v>
-      </c>
-      <c r="M6" t="s">
-        <v>358</v>
-      </c>
-      <c r="N6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7">
-        <v>6156</v>
-      </c>
-      <c r="G7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L7" t="s">
-        <v>305</v>
-      </c>
-      <c r="M7" t="s">
-        <v>358</v>
-      </c>
-      <c r="N7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8">
-        <v>6171</v>
-      </c>
-      <c r="G8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" t="s">
-        <v>162</v>
-      </c>
-      <c r="J8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K8" t="s">
-        <v>225</v>
-      </c>
-      <c r="L8" t="s">
-        <v>311</v>
-      </c>
-      <c r="M8" t="s">
-        <v>358</v>
-      </c>
-      <c r="N8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9">
-        <v>1402</v>
-      </c>
-      <c r="G9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I9" t="s">
-        <v>166</v>
-      </c>
-      <c r="J9" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" t="s">
-        <v>232</v>
-      </c>
-      <c r="L9" t="s">
-        <v>317</v>
-      </c>
-      <c r="M9" t="s">
-        <v>358</v>
-      </c>
-      <c r="N9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10">
-        <v>6228</v>
-      </c>
-      <c r="G10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K10" t="s">
-        <v>233</v>
-      </c>
-      <c r="L10" t="s">
-        <v>292</v>
-      </c>
-      <c r="M10" t="s">
-        <v>358</v>
-      </c>
-      <c r="N10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11">
-        <v>6184</v>
-      </c>
-      <c r="G11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11" t="s">
-        <v>173</v>
-      </c>
-      <c r="K11" t="s">
-        <v>245</v>
-      </c>
-      <c r="L11" t="s">
-        <v>329</v>
-      </c>
-      <c r="M11" t="s">
-        <v>358</v>
-      </c>
-      <c r="N11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12">
-        <v>1201</v>
-      </c>
-      <c r="G12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" t="s">
-        <v>166</v>
-      </c>
-      <c r="J12" t="s">
-        <v>171</v>
-      </c>
-      <c r="K12" t="s">
-        <v>249</v>
-      </c>
-      <c r="L12" t="s">
-        <v>333</v>
-      </c>
-      <c r="M12" t="s">
-        <v>358</v>
-      </c>
-      <c r="N12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13">
-        <v>6192</v>
-      </c>
-      <c r="G13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" t="s">
-        <v>159</v>
-      </c>
-      <c r="I13" t="s">
-        <v>163</v>
-      </c>
-      <c r="J13" t="s">
-        <v>172</v>
-      </c>
-      <c r="K13" t="s">
-        <v>258</v>
-      </c>
-      <c r="L13" t="s">
-        <v>341</v>
-      </c>
-      <c r="M13" t="s">
-        <v>358</v>
-      </c>
-      <c r="N13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14">
-        <v>6133</v>
-      </c>
-      <c r="G14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" t="s">
-        <v>162</v>
-      </c>
-      <c r="J14" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" t="s">
-        <v>259</v>
-      </c>
-      <c r="L14" t="s">
-        <v>325</v>
-      </c>
-      <c r="M14" t="s">
-        <v>358</v>
-      </c>
-      <c r="N14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15">
-        <v>1155</v>
-      </c>
-      <c r="G15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" t="s">
-        <v>163</v>
-      </c>
-      <c r="J15" t="s">
-        <v>173</v>
-      </c>
-      <c r="K15" t="s">
-        <v>260</v>
-      </c>
-      <c r="M15" t="s">
-        <v>358</v>
-      </c>
-      <c r="N15" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16">
-        <v>6217</v>
-      </c>
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" t="s">
-        <v>162</v>
-      </c>
-      <c r="J16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K16" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16" t="s">
-        <v>326</v>
-      </c>
-      <c r="M16" t="s">
-        <v>358</v>
-      </c>
-      <c r="N16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17">
-        <v>6229</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" t="s">
-        <v>160</v>
-      </c>
-      <c r="I17" t="s">
-        <v>162</v>
-      </c>
-      <c r="J17" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" t="s">
-        <v>265</v>
-      </c>
-      <c r="M17" t="s">
-        <v>358</v>
-      </c>
-      <c r="N17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18">
-        <v>6222</v>
-      </c>
-      <c r="G18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" t="s">
-        <v>176</v>
-      </c>
-      <c r="K18" t="s">
-        <v>269</v>
-      </c>
-      <c r="L18" t="s">
-        <v>349</v>
-      </c>
-      <c r="M18" t="s">
-        <v>358</v>
-      </c>
-      <c r="N18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1">
-        <v>84</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19">
-        <v>6185</v>
-      </c>
-      <c r="G19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I19" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" t="s">
-        <v>176</v>
-      </c>
-      <c r="K19" t="s">
-        <v>270</v>
-      </c>
-      <c r="L19" t="s">
-        <v>350</v>
-      </c>
-      <c r="M19" t="s">
-        <v>358</v>
-      </c>
-      <c r="N19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1">
-        <v>89</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20">
-        <v>1802</v>
-      </c>
-      <c r="G20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" t="s">
-        <v>163</v>
-      </c>
-      <c r="J20" t="s">
-        <v>173</v>
-      </c>
-      <c r="K20" t="s">
-        <v>275</v>
-      </c>
-      <c r="L20" t="s">
-        <v>352</v>
-      </c>
-      <c r="M20" t="s">
-        <v>358</v>
-      </c>
-      <c r="N20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21">
-        <v>6106</v>
-      </c>
-      <c r="G21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" t="s">
-        <v>155</v>
-      </c>
-      <c r="I21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" t="s">
-        <v>279</v>
-      </c>
-      <c r="L21" t="s">
-        <v>355</v>
-      </c>
-      <c r="M21" t="s">
-        <v>358</v>
-      </c>
-      <c r="N21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="1">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22">
-        <v>6193</v>
-      </c>
-      <c r="G22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" t="s">
-        <v>159</v>
-      </c>
-      <c r="I22" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" t="s">
-        <v>173</v>
-      </c>
-      <c r="K22" t="s">
-        <v>280</v>
-      </c>
-      <c r="L22" t="s">
-        <v>356</v>
-      </c>
-      <c r="M22" t="s">
-        <v>358</v>
-      </c>
-      <c r="N22" t="s">
-        <v>361</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2">
-        <v>1010</v>
-      </c>
-      <c r="G2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" t="s">
-        <v>201</v>
-      </c>
-      <c r="L2" t="s">
-        <v>291</v>
-      </c>
-      <c r="M2" t="s">
-        <v>359</v>
-      </c>
-      <c r="N2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3">
-        <v>161</v>
-      </c>
-      <c r="G3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" t="s">
-        <v>175</v>
-      </c>
-      <c r="K3" t="s">
-        <v>205</v>
-      </c>
-      <c r="L3" t="s">
-        <v>296</v>
-      </c>
-      <c r="M3" t="s">
-        <v>359</v>
-      </c>
-      <c r="N3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4">
-        <v>2700</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" t="s">
-        <v>211</v>
-      </c>
-      <c r="L4" t="s">
-        <v>300</v>
-      </c>
-      <c r="M4" t="s">
-        <v>359</v>
-      </c>
-      <c r="N4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5">
-        <v>162</v>
-      </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" t="s">
-        <v>175</v>
-      </c>
-      <c r="K5" t="s">
-        <v>211</v>
-      </c>
-      <c r="M5" t="s">
-        <v>359</v>
-      </c>
-      <c r="N5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6">
-        <v>2024</v>
-      </c>
-      <c r="G6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K6" t="s">
-        <v>215</v>
-      </c>
-      <c r="L6" t="s">
-        <v>304</v>
-      </c>
-      <c r="M6" t="s">
-        <v>359</v>
-      </c>
-      <c r="N6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7">
-        <v>4001</v>
-      </c>
-      <c r="G7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L7" t="s">
-        <v>307</v>
-      </c>
-      <c r="M7" t="s">
-        <v>359</v>
-      </c>
-      <c r="N7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8">
-        <v>4145</v>
-      </c>
-      <c r="G8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K8" t="s">
-        <v>234</v>
-      </c>
-      <c r="L8" t="s">
-        <v>318</v>
-      </c>
-      <c r="M8" t="s">
-        <v>359</v>
-      </c>
-      <c r="N8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9">
-        <v>3001</v>
-      </c>
-      <c r="G9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" t="s">
-        <v>156</v>
-      </c>
-      <c r="I9" t="s">
-        <v>163</v>
-      </c>
-      <c r="J9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K9" t="s">
-        <v>253</v>
-      </c>
-      <c r="L9" t="s">
-        <v>337</v>
-      </c>
-      <c r="M9" t="s">
-        <v>359</v>
-      </c>
-      <c r="N9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10">
-        <v>2014</v>
-      </c>
-      <c r="G10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J10" t="s">
-        <v>174</v>
-      </c>
-      <c r="K10" t="s">
-        <v>264</v>
-      </c>
-      <c r="L10" t="s">
-        <v>344</v>
-      </c>
-      <c r="M10" t="s">
-        <v>359</v>
-      </c>
-      <c r="N10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>88</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11">
-        <v>1021</v>
-      </c>
-      <c r="G11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J11" t="s">
-        <v>191</v>
-      </c>
-      <c r="K11" t="s">
-        <v>274</v>
-      </c>
-      <c r="L11" t="s">
-        <v>351</v>
-      </c>
-      <c r="M11" t="s">
-        <v>359</v>
-      </c>
-      <c r="N11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1">
-        <v>91</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12">
-        <v>3017</v>
-      </c>
-      <c r="G12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" t="s">
-        <v>141</v>
-      </c>
-      <c r="I12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J12" t="s">
-        <v>175</v>
-      </c>
-      <c r="K12" t="s">
-        <v>277</v>
-      </c>
-      <c r="L12" t="s">
-        <v>353</v>
-      </c>
-      <c r="M12" t="s">
-        <v>359</v>
-      </c>
-      <c r="N12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N8"/>
   <sheetViews>
@@ -9361,6 +6897,925 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2">
+        <v>1010</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3">
+        <v>162</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" t="s">
+        <v>211</v>
+      </c>
+      <c r="M3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>1317</v>
+      </c>
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" t="s">
+        <v>315</v>
+      </c>
+      <c r="M4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>4063</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" t="s">
+        <v>327</v>
+      </c>
+      <c r="M5" t="s">
+        <v>359</v>
+      </c>
+      <c r="N5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>1011</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" t="s">
+        <v>248</v>
+      </c>
+      <c r="L6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M6" t="s">
+        <v>359</v>
+      </c>
+      <c r="N6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>2014</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M7" t="s">
+        <v>359</v>
+      </c>
+      <c r="N7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>6026</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" t="s">
+        <v>278</v>
+      </c>
+      <c r="L8" t="s">
+        <v>354</v>
+      </c>
+      <c r="M8" t="s">
+        <v>359</v>
+      </c>
+      <c r="N8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>2320</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" t="s">
+        <v>283</v>
+      </c>
+      <c r="M2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>6180</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L3" t="s">
+        <v>285</v>
+      </c>
+      <c r="M3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4">
+        <v>6027</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M4" t="s">
+        <v>358</v>
+      </c>
+      <c r="N4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>6007</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" t="s">
+        <v>293</v>
+      </c>
+      <c r="M5" t="s">
+        <v>358</v>
+      </c>
+      <c r="N5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>6238</v>
+      </c>
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" t="s">
+        <v>297</v>
+      </c>
+      <c r="M6" t="s">
+        <v>358</v>
+      </c>
+      <c r="N6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>6292</v>
+      </c>
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M7" t="s">
+        <v>358</v>
+      </c>
+      <c r="N7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8">
+        <v>1402</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" t="s">
+        <v>232</v>
+      </c>
+      <c r="L8" t="s">
+        <v>317</v>
+      </c>
+      <c r="M8" t="s">
+        <v>358</v>
+      </c>
+      <c r="N8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>6043</v>
+      </c>
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" t="s">
+        <v>319</v>
+      </c>
+      <c r="M9" t="s">
+        <v>358</v>
+      </c>
+      <c r="N9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <v>6056</v>
+      </c>
+      <c r="G10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10" t="s">
+        <v>328</v>
+      </c>
+      <c r="M10" t="s">
+        <v>358</v>
+      </c>
+      <c r="N10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11">
+        <v>6297</v>
+      </c>
+      <c r="G11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" t="s">
+        <v>268</v>
+      </c>
+      <c r="L11" t="s">
+        <v>348</v>
+      </c>
+      <c r="M11" t="s">
+        <v>358</v>
+      </c>
+      <c r="N11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12">
+        <v>6057</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" t="s">
+        <v>271</v>
+      </c>
+      <c r="L12" t="s">
+        <v>287</v>
+      </c>
+      <c r="M12" t="s">
+        <v>358</v>
+      </c>
+      <c r="N12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13">
+        <v>6473</v>
+      </c>
+      <c r="G13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" t="s">
+        <v>273</v>
+      </c>
+      <c r="L13" t="s">
+        <v>308</v>
+      </c>
+      <c r="M13" t="s">
+        <v>358</v>
+      </c>
+      <c r="N13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <v>6193</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" t="s">
+        <v>280</v>
+      </c>
+      <c r="L14" t="s">
+        <v>356</v>
+      </c>
+      <c r="M14" t="s">
+        <v>358</v>
+      </c>
+      <c r="N14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
         <v>39</v>
       </c>
       <c r="B2" t="s">
@@ -9399,34 +7854,34 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3">
-        <v>1379</v>
+        <v>374</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M3" t="s">
         <v>360</v>
@@ -9437,34 +7892,34 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4">
-        <v>652</v>
+        <v>1380</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K4" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="L4" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="M4" t="s">
         <v>360</v>
@@ -9473,36 +7928,207 @@
         <v>361</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>1379</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L2" t="s">
+        <v>320</v>
+      </c>
+      <c r="M2" t="s">
+        <v>360</v>
+      </c>
+      <c r="N2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3">
+        <v>652</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L3" t="s">
+        <v>322</v>
+      </c>
+      <c r="M3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4">
+        <v>375</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L4" t="s">
+        <v>330</v>
+      </c>
+      <c r="M4" t="s">
+        <v>360</v>
+      </c>
+      <c r="N4" t="s">
+        <v>361</v>
+      </c>
+    </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
+      <c r="D5" t="s">
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>374</v>
+        <v>4602</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="H5" t="s">
+        <v>157</v>
       </c>
       <c r="I5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K5" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="L5" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="M5" t="s">
         <v>360</v>
@@ -9511,39 +8137,260 @@
         <v>361</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>1154</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>6520</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4">
+        <v>6201</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" t="s">
+        <v>285</v>
+      </c>
+      <c r="M4" t="s">
+        <v>358</v>
+      </c>
+      <c r="N4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5">
+        <v>1840</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" t="s">
+        <v>210</v>
+      </c>
+      <c r="L5" t="s">
+        <v>299</v>
+      </c>
+      <c r="M5" t="s">
+        <v>358</v>
+      </c>
+      <c r="N5" t="s">
+        <v>361</v>
+      </c>
+    </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F6">
-        <v>375</v>
+        <v>6042</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>144</v>
       </c>
       <c r="I6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K6" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="L6" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="M6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N6" t="s">
         <v>361</v>
@@ -9551,37 +8398,40 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F7">
-        <v>1380</v>
+        <v>6216</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>123</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="K7" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="L7" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="M7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N7" t="s">
         <v>361</v>
@@ -9589,42 +8439,1412 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>6253</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M8" t="s">
+        <v>358</v>
+      </c>
+      <c r="N8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>6259</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" t="s">
+        <v>250</v>
+      </c>
+      <c r="L9" t="s">
+        <v>334</v>
+      </c>
+      <c r="M9" t="s">
+        <v>358</v>
+      </c>
+      <c r="N9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <v>6192</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" t="s">
+        <v>258</v>
+      </c>
+      <c r="L10" t="s">
+        <v>341</v>
+      </c>
+      <c r="M10" t="s">
+        <v>358</v>
+      </c>
+      <c r="N10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11">
+        <v>6217</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" t="s">
+        <v>261</v>
+      </c>
+      <c r="L11" t="s">
+        <v>326</v>
+      </c>
+      <c r="M11" t="s">
+        <v>358</v>
+      </c>
+      <c r="N11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12">
+        <v>6239</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" t="s">
+        <v>267</v>
+      </c>
+      <c r="L12" t="s">
+        <v>346</v>
+      </c>
+      <c r="M12" t="s">
+        <v>358</v>
+      </c>
+      <c r="N12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13">
+        <v>6006</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" t="s">
+        <v>281</v>
+      </c>
+      <c r="L13" t="s">
+        <v>357</v>
+      </c>
+      <c r="M13" t="s">
+        <v>358</v>
+      </c>
+      <c r="N13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>1516</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L2" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3">
+        <v>1326</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4">
+        <v>6032</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M4" t="s">
+        <v>358</v>
+      </c>
+      <c r="N4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>6142</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" t="s">
+        <v>302</v>
+      </c>
+      <c r="M5" t="s">
+        <v>358</v>
+      </c>
+      <c r="N5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>6252</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" t="s">
+        <v>286</v>
+      </c>
+      <c r="M6" t="s">
+        <v>358</v>
+      </c>
+      <c r="N6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>6472</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M7" t="s">
+        <v>358</v>
+      </c>
+      <c r="N7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>68</v>
       </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>6228</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M8" t="s">
+        <v>358</v>
+      </c>
+      <c r="N8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>6157</v>
+      </c>
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" t="s">
+        <v>242</v>
+      </c>
+      <c r="L9" t="s">
+        <v>326</v>
+      </c>
+      <c r="M9" t="s">
+        <v>358</v>
+      </c>
+      <c r="N9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <v>6176</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M10" t="s">
+        <v>358</v>
+      </c>
+      <c r="N10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11">
+        <v>6133</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" t="s">
+        <v>259</v>
+      </c>
+      <c r="L11" t="s">
+        <v>325</v>
+      </c>
+      <c r="M11" t="s">
+        <v>358</v>
+      </c>
+      <c r="N11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12">
+        <v>1155</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
+        <v>173</v>
+      </c>
+      <c r="K12" t="s">
+        <v>260</v>
+      </c>
+      <c r="M12" t="s">
+        <v>358</v>
+      </c>
+      <c r="N12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13">
+        <v>6222</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" t="s">
+        <v>349</v>
+      </c>
+      <c r="M13" t="s">
+        <v>358</v>
+      </c>
+      <c r="N13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <v>6106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" t="s">
+        <v>279</v>
+      </c>
+      <c r="L14" t="s">
+        <v>355</v>
+      </c>
+      <c r="M14" t="s">
+        <v>358</v>
+      </c>
+      <c r="N14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2">
+        <v>6170</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" t="s">
+        <v>284</v>
+      </c>
+      <c r="M2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>6342</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4">
+        <v>6132</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" t="s">
+        <v>308</v>
+      </c>
+      <c r="M4" t="s">
+        <v>358</v>
+      </c>
+      <c r="N4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5">
+        <v>1401</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M5" t="s">
+        <v>358</v>
+      </c>
+      <c r="N5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>6171</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" t="s">
+        <v>225</v>
+      </c>
+      <c r="L6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M6" t="s">
+        <v>358</v>
+      </c>
+      <c r="N6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>6181</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M7" t="s">
+        <v>358</v>
+      </c>
+      <c r="N7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>52</v>
+      </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>72</v>
+      <c r="C8" t="s">
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>76</v>
       </c>
       <c r="F8">
-        <v>4602</v>
+        <v>6033</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J8" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K8" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L8" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="M8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>6143</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" t="s">
+        <v>247</v>
+      </c>
+      <c r="L9" t="s">
+        <v>331</v>
+      </c>
+      <c r="M9" t="s">
+        <v>358</v>
+      </c>
+      <c r="N9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <v>1517</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" t="s">
+        <v>254</v>
+      </c>
+      <c r="L10" t="s">
+        <v>338</v>
+      </c>
+      <c r="M10" t="s">
+        <v>358</v>
+      </c>
+      <c r="N10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11">
+        <v>1327</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" t="s">
+        <v>266</v>
+      </c>
+      <c r="L11" t="s">
+        <v>345</v>
+      </c>
+      <c r="M11" t="s">
+        <v>358</v>
+      </c>
+      <c r="N11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12">
+        <v>2321</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" t="s">
+        <v>267</v>
+      </c>
+      <c r="L12" t="s">
+        <v>347</v>
+      </c>
+      <c r="M12" t="s">
+        <v>358</v>
+      </c>
+      <c r="N12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13">
+        <v>6185</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" t="s">
+        <v>270</v>
+      </c>
+      <c r="L13" t="s">
+        <v>350</v>
+      </c>
+      <c r="M13" t="s">
+        <v>358</v>
+      </c>
+      <c r="N13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <v>6343</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" t="s">
+        <v>272</v>
+      </c>
+      <c r="M14" t="s">
+        <v>358</v>
+      </c>
+      <c r="N14" t="s">
         <v>361</v>
       </c>
     </row>
